--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.02243</v>
+        <v>6.825306666666667</v>
       </c>
       <c r="H2">
-        <v>21.06729</v>
+        <v>20.47592</v>
       </c>
       <c r="I2">
-        <v>0.09918483354594591</v>
+        <v>0.0939724583253512</v>
       </c>
       <c r="J2">
-        <v>0.0991848335459459</v>
+        <v>0.09397245832535123</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1166653333333333</v>
+        <v>0.211539</v>
       </c>
       <c r="N2">
-        <v>0.349996</v>
+        <v>0.634617</v>
       </c>
       <c r="O2">
-        <v>0.003627699309917677</v>
+        <v>0.00536521120146958</v>
       </c>
       <c r="P2">
-        <v>0.003627699309917676</v>
+        <v>0.005365211201469579</v>
       </c>
       <c r="Q2">
-        <v>0.8192741367599999</v>
+        <v>1.44381854696</v>
       </c>
       <c r="R2">
-        <v>7.373467230839999</v>
+        <v>12.99436692264</v>
       </c>
       <c r="S2">
-        <v>0.0003598127522089276</v>
+        <v>0.0005041820860368075</v>
       </c>
       <c r="T2">
-        <v>0.0003598127522089276</v>
+        <v>0.0005041820860368076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.02243</v>
+        <v>6.825306666666667</v>
       </c>
       <c r="H3">
-        <v>21.06729</v>
+        <v>20.47592</v>
       </c>
       <c r="I3">
-        <v>0.09918483354594591</v>
+        <v>0.0939724583253512</v>
       </c>
       <c r="J3">
-        <v>0.0991848335459459</v>
+        <v>0.09397245832535123</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>36.00629499999999</v>
       </c>
       <c r="O3">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="P3">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="Q3">
-        <v>84.28389539894998</v>
+        <v>81.91800176848888</v>
       </c>
       <c r="R3">
-        <v>758.5550585905498</v>
+        <v>737.2620159163999</v>
       </c>
       <c r="S3">
-        <v>0.03701620618748942</v>
+        <v>0.0286058030647724</v>
       </c>
       <c r="T3">
-        <v>0.03701620618748942</v>
+        <v>0.02860580306477241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.02243</v>
+        <v>6.825306666666667</v>
       </c>
       <c r="H4">
-        <v>21.06729</v>
+        <v>20.47592</v>
       </c>
       <c r="I4">
-        <v>0.09918483354594591</v>
+        <v>0.0939724583253512</v>
       </c>
       <c r="J4">
-        <v>0.0991848335459459</v>
+        <v>0.09397245832535123</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.989848333333334</v>
+        <v>22.63137</v>
       </c>
       <c r="N4">
-        <v>17.969545</v>
+        <v>67.89411</v>
       </c>
       <c r="O4">
-        <v>0.1862538600327851</v>
+        <v>0.5739938253872932</v>
       </c>
       <c r="P4">
-        <v>0.186253860032785</v>
+        <v>0.573993825387293</v>
       </c>
       <c r="Q4">
-        <v>42.06329063145</v>
+        <v>154.4660405368</v>
       </c>
       <c r="R4">
-        <v>378.56961568305</v>
+        <v>1390.1943648312</v>
       </c>
       <c r="S4">
-        <v>0.0184735581046417</v>
+        <v>0.05393961083521632</v>
       </c>
       <c r="T4">
-        <v>0.01847355810464169</v>
+        <v>0.05393961083521633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.02243</v>
+        <v>6.825306666666667</v>
       </c>
       <c r="H5">
-        <v>21.06729</v>
+        <v>20.47592</v>
       </c>
       <c r="I5">
-        <v>0.09918483354594591</v>
+        <v>0.0939724583253512</v>
       </c>
       <c r="J5">
-        <v>0.0991848335459459</v>
+        <v>0.09397245832535123</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.050981</v>
+        <v>4.582890666666667</v>
       </c>
       <c r="N5">
-        <v>42.15294299999999</v>
+        <v>13.748672</v>
       </c>
       <c r="O5">
-        <v>0.4369141425390552</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="P5">
-        <v>0.4369141425390551</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="Q5">
-        <v>98.67203050382999</v>
+        <v>31.27963421980445</v>
       </c>
       <c r="R5">
-        <v>888.0482745344699</v>
+        <v>281.51670797824</v>
       </c>
       <c r="S5">
-        <v>0.04333525650160588</v>
+        <v>0.01092286233932568</v>
       </c>
       <c r="T5">
-        <v>0.04333525650160586</v>
+        <v>0.01092286233932568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>113.10098</v>
       </c>
       <c r="I6">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373497</v>
       </c>
       <c r="J6">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373498</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1166653333333333</v>
+        <v>0.211539</v>
       </c>
       <c r="N6">
-        <v>0.349996</v>
+        <v>0.634617</v>
       </c>
       <c r="O6">
-        <v>0.003627699309917677</v>
+        <v>0.00536521120146958</v>
       </c>
       <c r="P6">
-        <v>0.003627699309917676</v>
+        <v>0.005365211201469579</v>
       </c>
       <c r="Q6">
-        <v>4.398321177342222</v>
+        <v>7.975089402739999</v>
       </c>
       <c r="R6">
-        <v>39.58489059607999</v>
+        <v>71.77580462466</v>
       </c>
       <c r="S6">
-        <v>0.001931675829749668</v>
+        <v>0.00278490480668059</v>
       </c>
       <c r="T6">
-        <v>0.001931675829749667</v>
+        <v>0.00278490480668059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>113.10098</v>
       </c>
       <c r="I7">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373497</v>
       </c>
       <c r="J7">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373498</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>36.00629499999999</v>
       </c>
       <c r="O7">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="P7">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="Q7">
         <v>452.4830278521221</v>
@@ -883,10 +883,10 @@
         <v>4072.347250669099</v>
       </c>
       <c r="S7">
-        <v>0.1987236704714805</v>
+        <v>0.1580072768555826</v>
       </c>
       <c r="T7">
-        <v>0.1987236704714805</v>
+        <v>0.1580072768555827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>113.10098</v>
       </c>
       <c r="I8">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373497</v>
       </c>
       <c r="J8">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373498</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.989848333333334</v>
+        <v>22.63137</v>
       </c>
       <c r="N8">
-        <v>17.969545</v>
+        <v>67.89411</v>
       </c>
       <c r="O8">
-        <v>0.1862538600327851</v>
+        <v>0.5739938253872932</v>
       </c>
       <c r="P8">
-        <v>0.186253860032785</v>
+        <v>0.573993825387293</v>
       </c>
       <c r="Q8">
-        <v>225.8192388504555</v>
+        <v>853.2100419141999</v>
       </c>
       <c r="R8">
-        <v>2032.3731496541</v>
+        <v>7678.890377227799</v>
       </c>
       <c r="S8">
-        <v>0.09917637843889356</v>
+        <v>0.2979413304155116</v>
       </c>
       <c r="T8">
-        <v>0.09917637843889354</v>
+        <v>0.2979413304155116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>113.10098</v>
       </c>
       <c r="I9">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373497</v>
       </c>
       <c r="J9">
-        <v>0.5324795868468776</v>
+        <v>0.5190671349373498</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.050981</v>
+        <v>4.582890666666667</v>
       </c>
       <c r="N9">
-        <v>42.15294299999999</v>
+        <v>13.748672</v>
       </c>
       <c r="O9">
-        <v>0.4369141425390552</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="P9">
-        <v>0.4369141425390551</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="Q9">
-        <v>529.7265736871266</v>
+        <v>172.7764752109511</v>
       </c>
       <c r="R9">
-        <v>4767.539163184139</v>
+        <v>1554.98827689856</v>
       </c>
       <c r="S9">
-        <v>0.2326478621067539</v>
+        <v>0.0603336228595749</v>
       </c>
       <c r="T9">
-        <v>0.2326478621067539</v>
+        <v>0.0603336228595749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.47235233333333</v>
+        <v>15.52625766666667</v>
       </c>
       <c r="H10">
-        <v>64.41705699999999</v>
+        <v>46.578773</v>
       </c>
       <c r="I10">
-        <v>0.3032756028926696</v>
+        <v>0.2137692374549467</v>
       </c>
       <c r="J10">
-        <v>0.3032756028926695</v>
+        <v>0.2137692374549468</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1166653333333333</v>
+        <v>0.211539</v>
       </c>
       <c r="N10">
-        <v>0.349996</v>
+        <v>0.634617</v>
       </c>
       <c r="O10">
-        <v>0.003627699309917677</v>
+        <v>0.00536521120146958</v>
       </c>
       <c r="P10">
-        <v>0.003627699309917676</v>
+        <v>0.005365211201469579</v>
       </c>
       <c r="Q10">
-        <v>2.505079142419111</v>
+        <v>3.284409020549</v>
       </c>
       <c r="R10">
-        <v>22.54571228177199</v>
+        <v>29.559681184941</v>
       </c>
       <c r="S10">
-        <v>0.001100192695328605</v>
+        <v>0.001146917107322891</v>
       </c>
       <c r="T10">
-        <v>0.001100192695328604</v>
+        <v>0.001146917107322891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.47235233333333</v>
+        <v>15.52625766666667</v>
       </c>
       <c r="H11">
-        <v>64.41705699999999</v>
+        <v>46.578773</v>
       </c>
       <c r="I11">
-        <v>0.3032756028926696</v>
+        <v>0.2137692374549467</v>
       </c>
       <c r="J11">
-        <v>0.3032756028926695</v>
+        <v>0.2137692374549468</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>36.00629499999999</v>
       </c>
       <c r="O11">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="P11">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="Q11">
-        <v>257.713284152646</v>
+        <v>186.3476712640038</v>
       </c>
       <c r="R11">
-        <v>2319.419557373814</v>
+        <v>1677.129041376035</v>
       </c>
       <c r="S11">
-        <v>0.1131837585139455</v>
+        <v>0.06507269062570756</v>
       </c>
       <c r="T11">
-        <v>0.1131837585139455</v>
+        <v>0.06507269062570757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.47235233333333</v>
+        <v>15.52625766666667</v>
       </c>
       <c r="H12">
-        <v>64.41705699999999</v>
+        <v>46.578773</v>
       </c>
       <c r="I12">
-        <v>0.3032756028926696</v>
+        <v>0.2137692374549467</v>
       </c>
       <c r="J12">
-        <v>0.3032756028926695</v>
+        <v>0.2137692374549468</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.989848333333334</v>
+        <v>22.63137</v>
       </c>
       <c r="N12">
-        <v>17.969545</v>
+        <v>67.89411</v>
       </c>
       <c r="O12">
-        <v>0.1862538600327851</v>
+        <v>0.5739938253872932</v>
       </c>
       <c r="P12">
-        <v>0.186253860032785</v>
+        <v>0.573993825387293</v>
       </c>
       <c r="Q12">
-        <v>128.6161338365628</v>
+        <v>351.38048196967</v>
       </c>
       <c r="R12">
-        <v>1157.545204529065</v>
+        <v>3162.42433772703</v>
       </c>
       <c r="S12">
-        <v>0.05648625169252979</v>
+        <v>0.1227022223568895</v>
       </c>
       <c r="T12">
-        <v>0.05648625169252977</v>
+        <v>0.1227022223568895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.47235233333333</v>
+        <v>15.52625766666667</v>
       </c>
       <c r="H13">
-        <v>64.41705699999999</v>
+        <v>46.578773</v>
       </c>
       <c r="I13">
-        <v>0.3032756028926696</v>
+        <v>0.2137692374549467</v>
       </c>
       <c r="J13">
-        <v>0.3032756028926695</v>
+        <v>0.2137692374549468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.050981</v>
+        <v>4.582890666666667</v>
       </c>
       <c r="N13">
-        <v>42.15294299999999</v>
+        <v>13.748672</v>
       </c>
       <c r="O13">
-        <v>0.4369141425390552</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="P13">
-        <v>0.4369141425390551</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="Q13">
-        <v>301.7076146609722</v>
+        <v>71.15514134882844</v>
       </c>
       <c r="R13">
-        <v>2715.36853194875</v>
+        <v>640.396272139456</v>
       </c>
       <c r="S13">
-        <v>0.1325053999908657</v>
+        <v>0.02484740736502682</v>
       </c>
       <c r="T13">
-        <v>0.1325053999908657</v>
+        <v>0.02484740736502682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.606340666666667</v>
+        <v>12.579035</v>
       </c>
       <c r="H14">
-        <v>13.819022</v>
+        <v>37.737105</v>
       </c>
       <c r="I14">
-        <v>0.06505997671450693</v>
+        <v>0.1731911692823522</v>
       </c>
       <c r="J14">
-        <v>0.06505997671450692</v>
+        <v>0.1731911692823523</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1166653333333333</v>
+        <v>0.211539</v>
       </c>
       <c r="N14">
-        <v>0.349996</v>
+        <v>0.634617</v>
       </c>
       <c r="O14">
-        <v>0.003627699309917677</v>
+        <v>0.00536521120146958</v>
       </c>
       <c r="P14">
-        <v>0.003627699309917676</v>
+        <v>0.005365211201469579</v>
       </c>
       <c r="Q14">
-        <v>0.5374002693235556</v>
+        <v>2.660956484865</v>
       </c>
       <c r="R14">
-        <v>4.836602423912</v>
+        <v>23.948608363785</v>
       </c>
       <c r="S14">
-        <v>0.0002360180326304769</v>
+        <v>0.0009292072014292904</v>
       </c>
       <c r="T14">
-        <v>0.0002360180326304769</v>
+        <v>0.0009292072014292905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.606340666666667</v>
+        <v>12.579035</v>
       </c>
       <c r="H15">
-        <v>13.819022</v>
+        <v>37.737105</v>
       </c>
       <c r="I15">
-        <v>0.06505997671450693</v>
+        <v>0.1731911692823522</v>
       </c>
       <c r="J15">
-        <v>0.06505997671450692</v>
+        <v>0.1731911692823523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>36.00629499999999</v>
       </c>
       <c r="O15">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="P15">
-        <v>0.3732042981182421</v>
+        <v>0.3044062438564017</v>
       </c>
       <c r="Q15">
-        <v>55.28575363816555</v>
+        <v>150.9748150084416</v>
       </c>
       <c r="R15">
-        <v>497.57178274349</v>
+        <v>1358.773335075975</v>
       </c>
       <c r="S15">
-        <v>0.02428066294532674</v>
+        <v>0.05272047331033906</v>
       </c>
       <c r="T15">
-        <v>0.02428066294532673</v>
+        <v>0.05272047331033908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.606340666666667</v>
+        <v>12.579035</v>
       </c>
       <c r="H16">
-        <v>13.819022</v>
+        <v>37.737105</v>
       </c>
       <c r="I16">
-        <v>0.06505997671450693</v>
+        <v>0.1731911692823522</v>
       </c>
       <c r="J16">
-        <v>0.06505997671450692</v>
+        <v>0.1731911692823523</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.989848333333334</v>
+        <v>22.63137</v>
       </c>
       <c r="N16">
-        <v>17.969545</v>
+        <v>67.89411</v>
       </c>
       <c r="O16">
-        <v>0.1862538600327851</v>
+        <v>0.5739938253872932</v>
       </c>
       <c r="P16">
-        <v>0.186253860032785</v>
+        <v>0.573993825387293</v>
       </c>
       <c r="Q16">
-        <v>27.59128196499889</v>
+        <v>284.68079532795</v>
       </c>
       <c r="R16">
-        <v>248.32153768499</v>
+        <v>2562.12715795155</v>
       </c>
       <c r="S16">
-        <v>0.01211767179672003</v>
+        <v>0.09941066177967561</v>
       </c>
       <c r="T16">
-        <v>0.01211767179672003</v>
+        <v>0.09941066177967563</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.606340666666667</v>
+        <v>12.579035</v>
       </c>
       <c r="H17">
-        <v>13.819022</v>
+        <v>37.737105</v>
       </c>
       <c r="I17">
-        <v>0.06505997671450693</v>
+        <v>0.1731911692823522</v>
       </c>
       <c r="J17">
-        <v>0.06505997671450692</v>
+        <v>0.1731911692823523</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.050981</v>
+        <v>4.582890666666667</v>
       </c>
       <c r="N17">
-        <v>42.15294299999999</v>
+        <v>13.748672</v>
       </c>
       <c r="O17">
-        <v>0.4369141425390552</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="P17">
-        <v>0.4369141425390551</v>
+        <v>0.1162347195548357</v>
       </c>
       <c r="Q17">
-        <v>64.72360518686067</v>
+        <v>57.64834209717333</v>
       </c>
       <c r="R17">
-        <v>582.5124466817459</v>
+        <v>518.8350788745599</v>
       </c>
       <c r="S17">
-        <v>0.02842562393982969</v>
+        <v>0.02013082699090829</v>
       </c>
       <c r="T17">
-        <v>0.02842562393982968</v>
+        <v>0.02013082699090829</v>
       </c>
     </row>
   </sheetData>
